--- a/public/employee_template/employee_retired.xlsx
+++ b/public/employee_template/employee_retired.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="77">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -204,13 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男(m)</t>
     <rPh sb="0" eb="1">
       <t>nan</t>
@@ -503,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>belongs_payty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,23 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>办公室</t>
-    <rPh sb="0" eb="1">
-      <t>ban gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi nei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程东辉</t>
-    <rPh sb="0" eb="1">
-      <t>cheng dong hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大学本科</t>
     <rPh sb="0" eb="1">
       <t>da xue</t>
@@ -606,19 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国矿业大学</t>
-    <rPh sb="0" eb="1">
-      <t>zhong guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kuang ye</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>412929197510020000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +602,28 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>yuan gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongs_party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国xxxx大学</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W395"/>
+  <dimension ref="A1:W426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -994,9 +975,10 @@
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
     <col min="19" max="19" width="17.1640625" customWidth="1"/>
     <col min="20" max="20" width="21.5" customWidth="1"/>
     <col min="21" max="21" width="21.1640625" customWidth="1"/>
@@ -1004,69 +986,69 @@
     <col min="23" max="23" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -1128,16 +1110,16 @@
         <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
@@ -1145,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1157,40 +1139,40 @@
         <v>27669</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="2">
         <v>35977</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
         <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3">
         <v>3000</v>
@@ -3159,15 +3141,167 @@
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D395" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D396" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D397" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D398" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D399" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D400" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D401" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D402" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D403" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D404" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D405" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D406" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D407" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D408" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D409" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D410" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D411" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D412" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D413" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D414" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D415" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D416" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D417" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D418" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D419" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D420" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D421" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D422" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D423" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D424" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D425" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D426" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D395">
-      <formula1>fm_list</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P238">
       <formula1>post_list</formula1>
     </dataValidation>
@@ -3179,6 +3313,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q84 T3:T114">
       <formula1>boolean_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D426">
+      <formula1>fm_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3203,97 +3340,97 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/public/employee_template/employee_retired.xlsx
+++ b/public/employee_template/employee_retired.xlsx
@@ -32,8 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>inner inner</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>inner inner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+科室名称必须与系统的科室名称一致</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="78">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -624,6 +658,13 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>da xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongs_to_org</t>
+    <rPh sb="6" eb="7">
+      <t>shi nei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,6 +688,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -955,11 +1009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -987,6 +1041,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3320,6 +3377,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
